--- a/Sprints/CapstoneProjectProductBacklog.xlsx
+++ b/Sprints/CapstoneProjectProductBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Corley\Dropbox\Work\_teaching\UWG\Capstone\Capstone - Spring 2024\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdena1\source\repos\Capstone-Project\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77E3956-8D82-4F97-8EEC-A468BB35B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16202AC0-AFCC-4A4E-9F29-51D2F5B7DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Priority</t>
   </si>
@@ -92,9 +92,6 @@
     <t>I can assign a name and description for the project to help others understand the purpose of the project</t>
   </si>
   <si>
-    <t>View and Edit a Board for a Project</t>
-  </si>
-  <si>
     <t>I can define the Stages of work expected for a project and setup for any handoffs needed during project work</t>
   </si>
   <si>
@@ -119,27 +116,15 @@
     <t>I can define work needed for a Project for my Group</t>
   </si>
   <si>
-    <t>Update Status of my assigned Task</t>
-  </si>
-  <si>
     <t>I can notify others about the progress on a Task</t>
   </si>
   <si>
-    <t>View Task Status Report for Employee in my Group</t>
-  </si>
-  <si>
     <t>I can monitor the progress for a single Employee</t>
   </si>
   <si>
-    <t>View Task Status Report for a Project I Manage</t>
-  </si>
-  <si>
     <t>I can monitor the progress for a Project</t>
   </si>
   <si>
-    <t>View Task Status Report for a Group I manage</t>
-  </si>
-  <si>
     <t>I can monitor the progress for a single Group</t>
   </si>
   <si>
@@ -171,13 +156,52 @@
   </si>
   <si>
     <t>All features available to Employees are also available to Managers and Admins</t>
+  </si>
+  <si>
+    <t>Edit a Board for a Project</t>
+  </si>
+  <si>
+    <t>Update Stage of my assigned Task</t>
+  </si>
+  <si>
+    <t>View Task Stage Report for Employee in my Group</t>
+  </si>
+  <si>
+    <t>View Task Stage Report for a Project I Manage</t>
+  </si>
+  <si>
+    <t>View Task Stage Report for a Group I manage</t>
+  </si>
+  <si>
+    <t>Manager?</t>
+  </si>
+  <si>
+    <t>Automate assigning employee to task</t>
+  </si>
+  <si>
+    <t>Assign a Task on a Board from a Project for my Group to myself</t>
+  </si>
+  <si>
+    <t>View Task</t>
+  </si>
+  <si>
+    <t>I can view detailed information about a particular task</t>
+  </si>
+  <si>
+    <t>View Assigned Tasks</t>
+  </si>
+  <si>
+    <t>View Available Tasks</t>
+  </si>
+  <si>
+    <t>Comment on Task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +229,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DAD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -218,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,12 +268,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFF2DAD8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
@@ -527,7 +575,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,9 +589,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -555,9 +603,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -569,9 +617,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.75">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -583,9 +631,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -597,9 +645,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -611,9 +659,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30.75">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -625,180 +673,280 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30.75">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75">
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75">
-      <c r="B20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition ref="A2:A18"/>
-    <sortCondition ref="B2:B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="A2:A29"/>
+    <sortCondition ref="B2:B29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprints/CapstoneProjectProductBacklog.xlsx
+++ b/Sprints/CapstoneProjectProductBacklog.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdena1\source\repos\Capstone-Project\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nn00020\Desktop\Capstone-Project\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16202AC0-AFCC-4A4E-9F29-51D2F5B7DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F1AB40-8373-43BA-82B0-8E2FEB87F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Priority</t>
   </si>
@@ -188,13 +189,19 @@
     <t>I can view detailed information about a particular task</t>
   </si>
   <si>
-    <t>View Assigned Tasks</t>
-  </si>
-  <si>
-    <t>View Available Tasks</t>
-  </si>
-  <si>
     <t>Comment on Task</t>
+  </si>
+  <si>
+    <t>view task history</t>
+  </si>
+  <si>
+    <t>I can review what has happened with a task and who has worked on it</t>
+  </si>
+  <si>
+    <t>View  my Assigned Tasks</t>
+  </si>
+  <si>
+    <t>View Available Tasks for me</t>
   </si>
 </sst>
 </file>
@@ -560,22 +567,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="16.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.86328125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -603,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -617,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -631,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -645,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -659,7 +666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -673,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -687,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -701,9 +708,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -715,9 +722,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -729,9 +736,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -743,9 +750,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -757,9 +764,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -771,9 +778,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
@@ -785,168 +792,182 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
         <v>2</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-    <sortCondition ref="A2:A29"/>
-    <sortCondition ref="B2:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+    <sortCondition ref="A2:A30"/>
+    <sortCondition ref="B2:B30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprints/CapstoneProjectProductBacklog.xlsx
+++ b/Sprints/CapstoneProjectProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdena1\source\repos\Capstone-Project\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16202AC0-AFCC-4A4E-9F29-51D2F5B7DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E523851-B975-4F5A-97D2-B8FC887A8CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-870" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
